--- a/ng/original_lasso.xlsx
+++ b/ng/original_lasso.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="220" yWindow="540" windowWidth="26040" windowHeight="13540" tabRatio="500"/>
+    <workbookView xWindow="7900" yWindow="1600" windowWidth="26040" windowHeight="13540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="lasso1" sheetId="1" r:id="rId1"/>
@@ -253,14 +253,14 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,804 +543,931 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F53"/>
+  <dimension ref="A2:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="6" max="6" width="62.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>6.9221000000000005E-2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>6.9221000000000005E-2</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>6.9221000000000005E-2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1.354E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>1.354E-2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>1.354E-2</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>-5.8979999999999996E-3</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>-5.8979999999999996E-3</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>-5.8979999999999996E-3</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>6.3497999999999999E-2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>6.3497999999999999E-2</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>6.3497999999999999E-2</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>8.2863999999999993E-2</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>8.2863999999999993E-2</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>8.2863999999999993E-2</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>4.6299999999999998E-4</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>4.6299999999999998E-4</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>4.6299999999999998E-4</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>-1.5681E-2</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>-1.5681E-2</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>-1.5681E-2</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>-5.7840000000000001E-3</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>-5.7840000000000001E-3</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>-5.7840000000000001E-3</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>-1.4855999999999999E-2</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>-1.4855999999999999E-2</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>-1.4855999999999999E-2</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>1.5055000000000001E-2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>1.5055000000000001E-2</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>1.5055000000000001E-2</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>-8.8850000000000005E-3</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>-8.8850000000000005E-3</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>-8.8850000000000005E-3</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>0.14324799999999999</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>0.14324799999999999</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>0.14324799999999999</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>-8.8659000000000002E-2</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>0.19470999999999999</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>7.6715000000000005E-2</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="E21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>4.7472E-2</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="D22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="1">
         <v>1.1475000000000001E-2</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>-2.6737E-2</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>-3.0412999999999999E-2</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>-4.0633000000000002E-2</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>-4.6959000000000001E-2</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="D24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>1.7488E-2</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="D25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>-2.3E-5</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>-9.0799999999999995E-3</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>-1.5438E-2</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>2.7636000000000001E-2</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>1.7210000000000001E-3</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
+      <c r="D28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="C29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1">
         <v>0.103933</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>0.21787999999999999</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="C30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="1">
         <v>8.1700000000000002E-4</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>1.5873999999999999E-2</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>12</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="1">
         <v>5.5442999999999999E-2</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="E31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="C32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="1">
         <v>9.2928999999999998E-2</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="E32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>14</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="C33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="1">
         <v>1.04E-2</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>15</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="C34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="1">
         <v>-4.4165999999999997E-2</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>16</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="2">
+      <c r="C35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="1">
         <v>1.3703E-2</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>17</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="C36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="1">
         <v>2.3536000000000001E-2</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>18</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="2">
+      <c r="C37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="1">
         <v>-1.818E-3</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>19</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="2">
+      <c r="C38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="1">
         <v>-8.7600000000000004E-4</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>-1.1424E-2</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>-3.0693999999999999E-2</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="3">
         <v>-3.1127999999999999E-2</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>7.5764999999999999E-2</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>7.3372000000000007E-2</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="3">
         <v>7.3366000000000001E-2</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="2" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>-7.7700000000000002E-4</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <v>-1.9910000000000001E-3</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>-1.8569999999999999E-3</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="2" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>-2.9433999999999998E-2</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="2" t="s">
+      <c r="D46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="2" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>9.5698000000000005E-2</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <v>6.8986000000000006E-2</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>8.6236999999999994E-2</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B48" s="2" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <v>1.4726E-2</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="4">
+      <c r="D48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="3">
         <v>1.7683000000000001E-2</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B49" s="2" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>7</v>
       </c>
-      <c r="C49" s="3">
+      <c r="B49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="2">
         <v>7.1564000000000003E-2</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <v>6.9291000000000005E-2</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3">
         <v>7.7004000000000003E-2</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B50" s="2" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="2">
         <v>-4.2132999999999997E-2</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <v>-3.7773000000000001E-2</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <v>-4.2528999999999997E-2</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="2" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>9</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <v>0.10713200000000001</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <v>0.11459800000000001</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="3">
         <v>0.11357299999999999</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B52" s="2" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>10</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52" s="2">
+      <c r="C52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="1">
         <v>6.5859999999999998E-3</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="5">
         <v>3.3000000000000003E-5</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B53" s="2" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>11</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" s="2">
+      <c r="C53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="1">
         <v>3.7956999999999998E-2</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F53" s="2" t="s">
+      <c r="E53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>18</v>
       </c>
     </row>

--- a/ng/original_lasso.xlsx
+++ b/ng/original_lasso.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7900" yWindow="1600" windowWidth="26040" windowHeight="13540" tabRatio="500"/>
+    <workbookView xWindow="1280" yWindow="460" windowWidth="26040" windowHeight="13540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="lasso1" sheetId="1" r:id="rId1"/>
@@ -251,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -261,6 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F53"/>
+  <dimension ref="B2:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -555,7 +556,7 @@
     <col min="6" max="6" width="62.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>45</v>
       </c>
@@ -564,7 +565,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -581,10 +582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -601,10 +599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -621,10 +616,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>3</v>
-      </c>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -641,10 +633,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>4</v>
-      </c>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -661,10 +650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>5</v>
-      </c>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -681,10 +667,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>6</v>
-      </c>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -701,10 +684,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>7</v>
-      </c>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -721,10 +701,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>8</v>
-      </c>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -741,10 +718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>9</v>
-      </c>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -761,10 +735,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>10</v>
-      </c>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -781,10 +752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>11</v>
-      </c>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
@@ -801,10 +769,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>12</v>
-      </c>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -821,7 +786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
         <v>46</v>
       </c>
@@ -830,7 +795,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
@@ -847,10 +812,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>1</v>
-      </c>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,10 +829,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2</v>
-      </c>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
@@ -887,10 +846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>3</v>
-      </c>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
@@ -907,10 +863,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>4</v>
-      </c>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
@@ -927,10 +880,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>5</v>
-      </c>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,10 +897,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>6</v>
-      </c>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
@@ -967,10 +914,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>7</v>
-      </c>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
@@ -987,10 +931,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>8</v>
-      </c>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1007,10 +948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>9</v>
-      </c>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
@@ -1025,10 +963,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>10</v>
-      </c>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
@@ -1045,10 +980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>11</v>
-      </c>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
@@ -1065,10 +997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>12</v>
-      </c>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>12</v>
       </c>
@@ -1085,10 +1014,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>13</v>
-      </c>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
@@ -1105,10 +1031,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>14</v>
-      </c>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1125,10 +1048,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>15</v>
-      </c>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
@@ -1145,10 +1065,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>16</v>
-      </c>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
@@ -1165,10 +1082,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>17</v>
-      </c>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1185,10 +1099,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>18</v>
-      </c>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
@@ -1205,10 +1116,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>19</v>
-      </c>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
@@ -1225,249 +1133,230 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="6" t="s">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43" s="1" t="s">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C45" s="1">
         <v>-1.1424E-2</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D45" s="4">
         <v>-3.0693999999999999E-2</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E45" s="3">
         <v>-3.1127999999999999E-2</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>2</v>
-      </c>
-      <c r="B44" s="1" t="s">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C46" s="1">
         <v>7.5764999999999999E-2</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D46" s="1">
         <v>7.3372000000000007E-2</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E46" s="3">
         <v>7.3366000000000001E-2</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="1">
+        <v>-7.7700000000000002E-4</v>
+      </c>
+      <c r="D47" s="1">
+        <v>-1.9910000000000001E-3</v>
+      </c>
+      <c r="E47" s="1">
+        <v>-1.8569999999999999E-3</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="1">
+        <v>-2.9433999999999998E-2</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="1">
-        <v>-7.7700000000000002E-4</v>
-      </c>
-      <c r="D45" s="1">
-        <v>-1.9910000000000001E-3</v>
-      </c>
-      <c r="E45" s="1">
-        <v>-1.8569999999999999E-3</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="C49" s="2">
+        <v>9.5698000000000005E-2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>6.8986000000000006E-2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>8.6236999999999994E-2</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="1">
-        <v>-2.9433999999999998E-2</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>5</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="2">
-        <v>9.5698000000000005E-2</v>
-      </c>
-      <c r="D47" s="1">
-        <v>6.8986000000000006E-2</v>
-      </c>
-      <c r="E47" s="1">
-        <v>8.6236999999999994E-2</v>
-      </c>
-      <c r="F47" s="1" t="s">
+      <c r="C50" s="2">
+        <v>1.4726E-2</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1.7683000000000001E-2</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="2">
+        <v>7.1564000000000003E-2</v>
+      </c>
+      <c r="D51" s="4">
+        <v>6.9291000000000005E-2</v>
+      </c>
+      <c r="E51" s="3">
+        <v>7.7004000000000003E-2</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="2">
+        <v>-4.2132999999999997E-2</v>
+      </c>
+      <c r="D52" s="4">
+        <v>-3.7773000000000001E-2</v>
+      </c>
+      <c r="E52" s="3">
+        <v>-4.2528999999999997E-2</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.10713200000000001</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0.11459800000000001</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.11357299999999999</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="1">
+        <v>6.5859999999999998E-3</v>
+      </c>
+      <c r="E54" s="5">
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>6</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="2">
-        <v>1.4726E-2</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1.7683000000000001E-2</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>7</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="2">
-        <v>7.1564000000000003E-2</v>
-      </c>
-      <c r="D49" s="4">
-        <v>6.9291000000000005E-2</v>
-      </c>
-      <c r="E49" s="3">
-        <v>7.7004000000000003E-2</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>8</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="2">
-        <v>-4.2132999999999997E-2</v>
-      </c>
-      <c r="D50" s="4">
-        <v>-3.7773000000000001E-2</v>
-      </c>
-      <c r="E50" s="3">
-        <v>-4.2528999999999997E-2</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>9</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" s="2">
-        <v>0.10713200000000001</v>
-      </c>
-      <c r="D51" s="4">
-        <v>0.11459800000000001</v>
-      </c>
-      <c r="E51" s="3">
-        <v>0.11357299999999999</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>10</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52" s="1">
-        <v>6.5859999999999998E-3</v>
-      </c>
-      <c r="E52" s="5">
-        <v>3.3000000000000003E-5</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>11</v>
-      </c>
-      <c r="B53" s="1" t="s">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" s="1">
+      <c r="C55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" s="1">
         <v>3.7956999999999998E-2</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F53" s="1" t="s">
+      <c r="E55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1475,7 +1364,7 @@
   <mergeCells count="3">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B43:F43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ng/original_lasso.xlsx
+++ b/ng/original_lasso.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="460" windowWidth="26040" windowHeight="13540" tabRatio="500"/>
+    <workbookView xWindow="12920" yWindow="460" windowWidth="26040" windowHeight="13540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="lasso1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
   <si>
     <t>NG</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>Foreign Exchange Rate: Canada (Canadian $ Per U.S.$)</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>fclbmc.lag1</t>
@@ -258,10 +255,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,24 +543,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
     <col min="6" max="6" width="62.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="B2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -787,13 +785,13 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="B18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
@@ -819,12 +817,8 @@
       <c r="C20" s="1">
         <v>-8.8659000000000002E-2</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
         <v>19</v>
       </c>
@@ -839,33 +833,29 @@
       <c r="D21" s="1">
         <v>7.6715000000000005E-2</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1">
         <v>4.7472E-2</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="D22" s="1"/>
       <c r="E22" s="1">
         <v>1.1475000000000001E-2</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1">
         <v>-2.6737E-2</v>
@@ -877,7 +867,7 @@
         <v>-4.0633000000000002E-2</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
@@ -887,36 +877,28 @@
       <c r="C24" s="1">
         <v>-4.6959000000000001E-2</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1">
         <v>1.7488E-2</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="5">
         <v>-2.3E-5</v>
@@ -928,48 +910,38 @@
         <v>-1.5438E-2</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1">
         <v>2.7636000000000001E-2</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1">
         <v>1.7210000000000001E-3</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="1">
         <v>0.103933</v>
       </c>
@@ -984,9 +956,7 @@
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="C30" s="1"/>
       <c r="D30" s="1">
         <v>8.1700000000000002E-4</v>
       </c>
@@ -1001,160 +971,128 @@
       <c r="B31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="1">
         <v>5.5442999999999999E-2</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="1">
         <v>9.2928999999999998E-2</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
       <c r="E33" s="1">
         <v>1.04E-2</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
       <c r="E34" s="1">
         <v>-4.4165999999999997E-2</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
       <c r="E35" s="1">
         <v>1.3703E-2</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
       <c r="E36" s="1">
         <v>2.3536000000000001E-2</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
       <c r="E37" s="1">
         <v>-1.818E-3</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
       <c r="E38" s="1">
         <v>-8.7600000000000004E-4</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
+      <c r="B43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
@@ -1209,7 +1147,7 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C47" s="1">
         <v>-7.7700000000000002E-4</v>
@@ -1221,7 +1159,7 @@
         <v>-1.8569999999999999E-3</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
@@ -1231,12 +1169,8 @@
       <c r="C48" s="1">
         <v>-2.9433999999999998E-2</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
         <v>19</v>
       </c>
@@ -1265,9 +1199,7 @@
       <c r="C50" s="2">
         <v>1.4726E-2</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="D50" s="1"/>
       <c r="E50" s="3">
         <v>1.7683000000000001E-2</v>
       </c>
@@ -1294,7 +1226,7 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C52" s="2">
         <v>-4.2132999999999997E-2</v>
@@ -1311,7 +1243,7 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C53" s="2">
         <v>0.10713200000000001</v>
@@ -1330,9 +1262,7 @@
       <c r="B54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="C54" s="1"/>
       <c r="D54" s="1">
         <v>6.5859999999999998E-3</v>
       </c>
@@ -1347,15 +1277,11 @@
       <c r="B55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="C55" s="1"/>
       <c r="D55" s="1">
         <v>3.7956999999999998E-2</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
         <v>18</v>
       </c>

--- a/ng/original_lasso.xlsx
+++ b/ng/original_lasso.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12920" yWindow="460" windowWidth="26040" windowHeight="13540" tabRatio="500"/>
+    <workbookView xWindow="1280" yWindow="460" windowWidth="26040" windowHeight="13540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="lasso1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
   <si>
     <t>NG</t>
   </si>
@@ -174,13 +174,19 @@
   </si>
   <si>
     <t>Lasso 3, original Y series, X: combination of Lasso 1 and 2</t>
+  </si>
+  <si>
+    <t>NG (excess bond return)</t>
+  </si>
+  <si>
+    <t>14th Nov, 2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -192,6 +198,21 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -221,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -244,11 +265,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -256,8 +422,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F55"/>
+  <dimension ref="B2:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -555,213 +742,187 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F6" s="20" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>6.9221000000000005E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>6.9221000000000005E-2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>6.9221000000000005E-2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.354E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.354E-2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1.354E-2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>-5.8979999999999996E-3</v>
-      </c>
-      <c r="D6" s="4">
-        <v>-5.8979999999999996E-3</v>
-      </c>
-      <c r="E6" s="3">
-        <v>-5.8979999999999996E-3</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6.3497999999999999E-2</v>
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6.9221000000000005E-2</v>
       </c>
       <c r="D7" s="1">
-        <v>6.3497999999999999E-2</v>
-      </c>
-      <c r="E7" s="3">
-        <v>6.3497999999999999E-2</v>
+        <v>6.9221000000000005E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6.9221000000000005E-2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2">
-        <v>8.2863999999999993E-2</v>
-      </c>
-      <c r="D8" s="4">
-        <v>8.2863999999999993E-2</v>
+        <v>1.354E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.354E-2</v>
       </c>
       <c r="E8" s="3">
-        <v>8.2863999999999993E-2</v>
+        <v>1.354E-2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4.6299999999999998E-4</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4.6299999999999998E-4</v>
-      </c>
-      <c r="E9" s="1">
-        <v>4.6299999999999998E-4</v>
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-5.8979999999999996E-3</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-5.8979999999999996E-3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-5.8979999999999996E-3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1">
-        <v>-1.5681E-2</v>
-      </c>
-      <c r="D10" s="4">
-        <v>-1.5681E-2</v>
+        <v>6.3497999999999999E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6.3497999999999999E-2</v>
       </c>
       <c r="E10" s="3">
-        <v>-1.5681E-2</v>
+        <v>6.3497999999999999E-2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2">
-        <v>-5.7840000000000001E-3</v>
+        <v>8.2863999999999993E-2</v>
       </c>
       <c r="D11" s="4">
-        <v>-5.7840000000000001E-3</v>
+        <v>8.2863999999999993E-2</v>
       </c>
       <c r="E11" s="3">
-        <v>-5.7840000000000001E-3</v>
+        <v>8.2863999999999993E-2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2">
-        <v>-1.4855999999999999E-2</v>
-      </c>
-      <c r="D12" s="4">
-        <v>-1.4855999999999999E-2</v>
-      </c>
-      <c r="E12" s="3">
-        <v>-1.4855999999999999E-2</v>
+        <v>4.6299999999999998E-4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.6299999999999998E-4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4.6299999999999998E-4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1.5055000000000001E-2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1.5055000000000001E-2</v>
+        <v>9</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-1.5681E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>-1.5681E-2</v>
       </c>
       <c r="E13" s="3">
-        <v>1.5055000000000001E-2</v>
+        <v>-1.5681E-2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2">
-        <v>-8.8850000000000005E-3</v>
+        <v>-5.7840000000000001E-3</v>
       </c>
       <c r="D14" s="4">
-        <v>-8.8850000000000005E-3</v>
+        <v>-5.7840000000000001E-3</v>
       </c>
       <c r="E14" s="3">
-        <v>-8.8850000000000005E-3</v>
+        <v>-5.7840000000000001E-3</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>22</v>
@@ -769,528 +930,609 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-1.4855999999999999E-2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>-1.4855999999999999E-2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-1.4855999999999999E-2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.5055000000000001E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.5055000000000001E-2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1.5055000000000001E-2</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2">
+        <v>-8.8850000000000005E-3</v>
+      </c>
+      <c r="D17" s="4">
+        <v>-8.8850000000000005E-3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>-8.8850000000000005E-3</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C18" s="2">
         <v>0.14324799999999999</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D18" s="4">
         <v>0.14324799999999999</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E18" s="3">
         <v>0.14324799999999999</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="s">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C36" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D36" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E36" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F36" s="20" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="1">
-        <v>-8.8659000000000002E-2</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.19470999999999999</v>
-      </c>
-      <c r="D21" s="1">
-        <v>7.6715000000000005E-2</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="1">
-        <v>4.7472E-2</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1">
-        <v>1.1475000000000001E-2</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="1">
-        <v>-2.6737E-2</v>
-      </c>
-      <c r="D23" s="1">
-        <v>-3.0412999999999999E-2</v>
-      </c>
-      <c r="E23" s="1">
-        <v>-4.0633000000000002E-2</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="1">
-        <v>-4.6959000000000001E-2</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1.7488E-2</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="5">
-        <v>-2.3E-5</v>
-      </c>
-      <c r="D26" s="1">
-        <v>-9.0799999999999995E-3</v>
-      </c>
-      <c r="E26" s="1">
-        <v>-1.5438E-2</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2.7636000000000001E-2</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1.7210000000000001E-3</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1">
-        <v>0.103933</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.21787999999999999</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1">
-        <v>8.1700000000000002E-4</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1.5873999999999999E-2</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1">
-        <v>5.5442999999999999E-2</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1">
-        <v>9.2928999999999998E-2</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1">
-        <v>1.04E-2</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1">
-        <v>-4.4165999999999997E-2</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1">
-        <v>1.3703E-2</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1">
-        <v>2.3536000000000001E-2</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1">
-        <v>-1.818E-3</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>42</v>
+        <v>5</v>
+      </c>
+      <c r="C37" s="1">
+        <v>-8.8659000000000002E-2</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1">
-        <v>-8.7600000000000004E-4</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>43</v>
+        <v>6</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.19470999999999999</v>
+      </c>
+      <c r="D38" s="7">
+        <v>7.6715000000000005E-2</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="B39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4.7472E-2</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="11">
+        <v>1.1475000000000001E-2</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="B40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="1">
+        <v>-2.6737E-2</v>
+      </c>
+      <c r="D40" s="9">
+        <v>-3.0412999999999999E-2</v>
+      </c>
+      <c r="E40" s="9">
+        <v>-4.0633000000000002E-2</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="7">
+        <v>-4.6959000000000001E-2</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1.7488E-2</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="B43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="5">
+        <v>-2.3E-5</v>
+      </c>
+      <c r="D43" s="10">
+        <v>-9.0799999999999995E-3</v>
+      </c>
+      <c r="E43" s="10">
+        <v>-1.5438E-2</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="C44" s="7">
+        <v>2.7636000000000001E-2</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="12">
+        <v>1.7210000000000001E-3</v>
+      </c>
+      <c r="D45" s="14"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="15">
+        <v>0.103933</v>
+      </c>
+      <c r="E46" s="11">
+        <v>0.21787999999999999</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="8">
+        <v>8.1700000000000002E-4</v>
+      </c>
+      <c r="E47" s="9">
+        <v>1.5873999999999999E-2</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="16">
+        <v>5.5442999999999999E-2</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="18">
+        <v>9.2928999999999998E-2</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="17"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="15">
+        <v>1.04E-2</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="17"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="8">
+        <v>-4.4165999999999997E-2</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="17"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="8">
+        <v>1.3703E-2</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="17"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="8">
+        <v>2.3536000000000001E-2</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="17"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="8">
+        <v>-1.818E-3</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="8">
+        <v>-8.7600000000000004E-4</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B66" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C67" s="1">
         <v>-1.1424E-2</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D67" s="4">
         <v>-3.0693999999999999E-2</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E67" s="3">
         <v>-3.1127999999999999E-2</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C68" s="1">
         <v>7.5764999999999999E-2</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D68" s="1">
         <v>7.3372000000000007E-2</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E68" s="3">
         <v>7.3366000000000001E-2</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C69" s="1">
         <v>-7.7700000000000002E-4</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D69" s="1">
         <v>-1.9910000000000001E-3</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E69" s="1">
         <v>-1.8569999999999999E-3</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C70" s="1">
         <v>-2.9433999999999998E-2</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1" t="s">
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B49" s="1" t="s">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C71" s="2">
         <v>9.5698000000000005E-2</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D71" s="1">
         <v>6.8986000000000006E-2</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E71" s="1">
         <v>8.6236999999999994E-2</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C72" s="2">
         <v>1.4726E-2</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="3">
+      <c r="D72" s="1"/>
+      <c r="E72" s="3">
         <v>1.7683000000000001E-2</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C73" s="2">
         <v>7.1564000000000003E-2</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D73" s="4">
         <v>6.9291000000000005E-2</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E73" s="3">
         <v>7.7004000000000003E-2</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B52" s="1" t="s">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C74" s="2">
         <v>-4.2132999999999997E-2</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D74" s="4">
         <v>-3.7773000000000001E-2</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E74" s="3">
         <v>-4.2528999999999997E-2</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C75" s="19">
         <v>0.10713200000000001</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D75" s="4">
         <v>0.11459800000000001</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E75" s="3">
         <v>0.11357299999999999</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B76" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1">
+      <c r="C76" s="9"/>
+      <c r="D76" s="8">
         <v>6.5859999999999998E-3</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E76" s="5">
         <v>3.3000000000000003E-5</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B77" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1">
+      <c r="C77" s="11"/>
+      <c r="D77" s="8">
         <v>3.7956999999999998E-2</v>
       </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1" t="s">
+      <c r="E77" s="1"/>
+      <c r="F77" s="1" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B43:F43"/>
+  <mergeCells count="5">
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
